--- a/ProcessedData/conf_rbf_SVM_audio_5.xlsx
+++ b/ProcessedData/conf_rbf_SVM_audio_5.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.278338828763064</v>
+        <v>0.03571016322636131</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6576451270741838</v>
+        <v>0.5025811680538039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02196914908677809</v>
+        <v>0.4617086687198348</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.146974309714376</v>
+        <v>0.05616098919892045</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.478174812351477</v>
+        <v>0.544131739586743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1201935888952825</v>
+        <v>0.3997072712143366</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.546333146882371</v>
+        <v>0.005948351244886203</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.335608979473627</v>
+        <v>0.147494119888379</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8396823753428116</v>
+        <v>0.846557528866735</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.451779377160842</v>
+        <v>0.220496139858473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07155152143565757</v>
+        <v>0.5752209446144827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3923530351906869</v>
+        <v>0.2042829155270443</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.2445501520592</v>
+        <v>0.01744307097695916</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.01856911126884</v>
+        <v>0.2823163104145941</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4437946234622892</v>
+        <v>0.7002406186084466</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9917029581561063</v>
+        <v>0.004758796095230547</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.424044649744382</v>
+        <v>0.04413599600186477</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.467008175887351</v>
+        <v>0.9511052079029046</v>
       </c>
       <c r="E7" t="n">
         <v>37</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7643117363042744</v>
+        <v>0.01260713961804488</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.168127466353618</v>
+        <v>0.0362724551014556</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.569375028219633</v>
+        <v>0.9511204052804996</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.334243209203829</v>
+        <v>0.01093282648631584</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.154842536617829</v>
+        <v>0.133579723872747</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8924551255487011</v>
+        <v>0.8554874496409373</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7432237345691941</v>
+        <v>0.1338676989922005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003378527500010331</v>
+        <v>0.6829335193226639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5311998939474228</v>
+        <v>0.1831987816851359</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.281055501024265</v>
+        <v>0.04563089909441313</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5288299297751361</v>
+        <v>0.5399116455392294</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1015092630391969</v>
+        <v>0.4144574553663575</v>
       </c>
       <c r="E11" t="n">
         <v>37</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.403744069976663</v>
+        <v>0.003625216548064056</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.560742552189802</v>
+        <v>0.06089091777253983</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.303360920016922</v>
+        <v>0.9354838656793962</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.288008894521947</v>
+        <v>0.02612715788448839</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8364962027255213</v>
+        <v>0.3213541843646408</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3511507179022225</v>
+        <v>0.652518657750871</v>
       </c>
       <c r="E13" t="n">
         <v>37</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.380003836966447</v>
+        <v>0.0045458941212737</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.444638524163815</v>
+        <v>0.0806666244484842</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.161591258896558</v>
+        <v>0.9147874814302422</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3807803778200262</v>
+        <v>0.2643096395780534</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2259382085555249</v>
+        <v>0.5612824663081122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3833958844049682</v>
+        <v>0.1744078941138342</v>
       </c>
       <c r="E15" t="n">
         <v>37</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9562710381178146</v>
+        <v>0.04846965565758617</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6770692932620729</v>
+        <v>0.3289677758036305</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3214555274718627</v>
+        <v>0.6225625685387832</v>
       </c>
       <c r="E16" t="n">
         <v>37</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7180927516310998</v>
+        <v>0.08876530944123327</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4826445166386942</v>
+        <v>0.3804846614066034</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1854417265522209</v>
+        <v>0.5307500291521631</v>
       </c>
       <c r="E17" t="n">
         <v>37</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.521003038018217</v>
+        <v>0.002743315138374787</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.633274817644996</v>
+        <v>0.05067233773504962</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.395955515509379</v>
+        <v>0.9465843471265756</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.093299863453931</v>
+        <v>0.03288562353846314</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8074840648655278</v>
+        <v>0.2248520084571444</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5818243103428181</v>
+        <v>0.7422623680043924</v>
       </c>
       <c r="E19" t="n">
         <v>37</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.440036404752386</v>
+        <v>0.02444281278125184</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7436117971026387</v>
+        <v>0.5631380379657986</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1314304978007279</v>
+        <v>0.4124191492529496</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.30262194694131</v>
+        <v>0.04821756105781842</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3241137654893517</v>
+        <v>0.7221575039188733</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5049775595227778</v>
+        <v>0.2296249350233084</v>
       </c>
       <c r="E21" t="n">
         <v>37</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.465057872888489</v>
+        <v>0.2105746023216016</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06374281872815246</v>
+        <v>0.4433468798706602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002390946216770093</v>
+        <v>0.346078517807738</v>
       </c>
       <c r="E22" t="n">
         <v>37</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.065504808490952</v>
+        <v>0.006156282494029961</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.345142950195844</v>
+        <v>0.05345791392634811</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.370846735583606</v>
+        <v>0.9403858035796218</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.428397533915354</v>
+        <v>0.01348481839174083</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.065144557461843</v>
+        <v>0.237596357620005</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.557120272207677</v>
+        <v>0.7489188239882542</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.359885140207022</v>
+        <v>0.01239356642698768</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.112825566874215</v>
+        <v>0.2025126836884669</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6548500801050715</v>
+        <v>0.7850937498845452</v>
       </c>
       <c r="E25" t="n">
         <v>37</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.358448642305584</v>
+        <v>0.0001073761500365643</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.675680706020693</v>
+        <v>0.01143109755750173</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.120893345882998</v>
+        <v>0.988461526292462</v>
       </c>
       <c r="E26" t="n">
         <v>37</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.280226387221144</v>
+        <v>0.008472475715620658</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.258132261695118</v>
+        <v>0.1191911780309163</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.9550471988633057</v>
+        <v>0.872336346253463</v>
       </c>
       <c r="E27" t="n">
         <v>37</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2707629702377356</v>
+        <v>0.3054922813481443</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2162820390146923</v>
+        <v>0.581352690678749</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7804696546257254</v>
+        <v>0.1131550279731066</v>
       </c>
       <c r="E28" t="n">
         <v>38</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.3446611758678226</v>
+        <v>0.2909502741089643</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4768426248259406</v>
+        <v>0.6705370448982476</v>
       </c>
       <c r="D29" t="n">
-        <v>1.413213384150729</v>
+        <v>0.0385126809927881</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1636276733849608</v>
+        <v>0.3993717694955283</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7083408001519932</v>
+        <v>0.5750081592342217</v>
       </c>
       <c r="D30" t="n">
-        <v>1.490920270634951</v>
+        <v>0.02562007127025022</v>
       </c>
       <c r="E30" t="n">
         <v>38</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.9509557940653035</v>
+        <v>0.08285817503811449</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.003000629345188632</v>
+        <v>0.819880391793139</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9493925099055708</v>
+        <v>0.09726143316874655</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.311565779591272</v>
+        <v>0.007880949365436386</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.302894202743354</v>
+        <v>0.08969709006730654</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.102856527951609</v>
+        <v>0.9024219605672571</v>
       </c>
       <c r="E32" t="n">
         <v>38</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9025594757177184</v>
+        <v>0.04070744499606912</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.8055790607260117</v>
+        <v>0.4521248100085999</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.06625338221972117</v>
+        <v>0.5071677449953309</v>
       </c>
       <c r="E33" t="n">
         <v>38</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4510842870508138</v>
+        <v>0.2383199841789377</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3850200256990125</v>
+        <v>0.6997352937821797</v>
       </c>
       <c r="D34" t="n">
-        <v>1.072844051607013</v>
+        <v>0.06194472203888263</v>
       </c>
       <c r="E34" t="n">
         <v>38</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.051176854703125</v>
+        <v>0.06874676213929461</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09248618192764624</v>
+        <v>0.8608288684823985</v>
       </c>
       <c r="D35" t="n">
-        <v>1.09065545598478</v>
+        <v>0.07042436937830693</v>
       </c>
       <c r="E35" t="n">
         <v>38</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.06528836518453812</v>
+        <v>0.4466295604685836</v>
       </c>
       <c r="C36" t="n">
-        <v>0.539419894228124</v>
+        <v>0.4860099982110869</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8432077444081819</v>
+        <v>0.06736044132032956</v>
       </c>
       <c r="E36" t="n">
         <v>38</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.6792699437300012</v>
+        <v>0.1048449204369522</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3243621187714975</v>
+        <v>0.7410056528760435</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7799263683680017</v>
+        <v>0.1541494266870043</v>
       </c>
       <c r="E37" t="n">
         <v>38</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.959148226916563</v>
+        <v>8.91613822915308e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.58013137221007</v>
+        <v>0.09286267933323654</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.090571860949304</v>
+        <v>0.9070481592844718</v>
       </c>
       <c r="E38" t="n">
         <v>38</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5531748115465025</v>
+        <v>0.4397656314334594</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0595601681246275</v>
+        <v>0.1419811244637312</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3636257775049437</v>
+        <v>0.4182532441028092</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.9858690376192054</v>
+        <v>0.05480802234239435</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.4811349815229643</v>
+        <v>0.7290022106282829</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5652219053843118</v>
+        <v>0.2161897670293227</v>
       </c>
       <c r="E40" t="n">
         <v>38</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.6706755576583514</v>
+        <v>0.1331835442385385</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1588888488492809</v>
+        <v>0.6291608652057794</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4229749470540078</v>
+        <v>0.2376555905556821</v>
       </c>
       <c r="E41" t="n">
         <v>38</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.377692192510092</v>
+        <v>0.03678262633269724</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5209811383607895</v>
+        <v>0.6551762382054698</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3355022288668643</v>
+        <v>0.3080411354618331</v>
       </c>
       <c r="E42" t="n">
         <v>38</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.6152442493139414</v>
+        <v>0.1386234859054138</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2341849707978635</v>
+        <v>0.5177824273950473</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1505677718927593</v>
+        <v>0.3435940866995389</v>
       </c>
       <c r="E43" t="n">
         <v>38</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.3893005880296509</v>
+        <v>0.2345375339934542</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03650428430811459</v>
+        <v>0.5579531058151876</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4086645680485709</v>
+        <v>0.2075093601913582</v>
       </c>
       <c r="E44" t="n">
         <v>38</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.8492347922064691</v>
+        <v>0.02665858372361513</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.055332207232035</v>
+        <v>0.28586229440521</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.4248359076815056</v>
+        <v>0.6874791218711747</v>
       </c>
       <c r="E45" t="n">
         <v>38</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.120449637412032</v>
+        <v>0.03912950137969756</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6657706174261843</v>
+        <v>0.5856935384985664</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1958823561757079</v>
+        <v>0.3751769601217361</v>
       </c>
       <c r="E46" t="n">
         <v>38</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.6588386529934904</v>
+        <v>0.1259092872256587</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1961896323425744</v>
+        <v>0.6806643564424842</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5917054455374348</v>
+        <v>0.1934263563318571</v>
       </c>
       <c r="E47" t="n">
         <v>38</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.449276186139381</v>
+        <v>0.005221104466145861</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.388121414810748</v>
+        <v>0.09923423914108449</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.053653187582534</v>
+        <v>0.8955446563927696</v>
       </c>
       <c r="E48" t="n">
         <v>38</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.4694792576712767</v>
+        <v>0.1847159942255726</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1072745023452281</v>
+        <v>0.5992671037778359</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4779067562029333</v>
+        <v>0.2160169019965915</v>
       </c>
       <c r="E49" t="n">
         <v>38</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.5393859419621758</v>
+        <v>0.1474447466811974</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2518030853180103</v>
+        <v>0.5388718930829342</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2375787288799735</v>
+        <v>0.3136833602358685</v>
       </c>
       <c r="E50" t="n">
         <v>38</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.7691220203943583</v>
+        <v>0.07620332179030669</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.5100595892209806</v>
+        <v>0.6117227516099746</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3125379932163732</v>
+        <v>0.3120739265997184</v>
       </c>
       <c r="E51" t="n">
         <v>38</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.075218276992653</v>
+        <v>0.03556299223646294</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.7613671045965243</v>
+        <v>0.4470832378904387</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.08418077212579862</v>
+        <v>0.5173537698730983</v>
       </c>
       <c r="E52" t="n">
         <v>38</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.8127247191968177</v>
+        <v>0.05899141657428936</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.6430295191371097</v>
+        <v>0.4377836677883977</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.08046994051384433</v>
+        <v>0.5032249156373128</v>
       </c>
       <c r="E53" t="n">
         <v>38</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.8440855603463244</v>
+        <v>0.08191203284071538</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.418950825346209</v>
+        <v>0.5366348872082546</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1366833448517248</v>
+        <v>0.38145307995103</v>
       </c>
       <c r="E54" t="n">
         <v>38</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0406412821034034</v>
+        <v>0.4129488621587935</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1879600440106576</v>
+        <v>0.3407968329687051</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0316671320167153</v>
+        <v>0.2462543048725014</v>
       </c>
       <c r="E55" t="n">
         <v>39</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2488214938320586</v>
+        <v>0.6330727107236012</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6868267239268907</v>
+        <v>0.2892462139270363</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3702804019096312</v>
+        <v>0.07768107534936294</v>
       </c>
       <c r="E56" t="n">
         <v>39</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2786652758641945</v>
+        <v>0.3238115172186488</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4594423507576612</v>
+        <v>0.6214215730412967</v>
       </c>
       <c r="D57" t="n">
-        <v>1.127115950673292</v>
+        <v>0.05476690974005424</v>
       </c>
       <c r="E57" t="n">
         <v>39</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.639174174125775</v>
+        <v>0.8373817950329397</v>
       </c>
       <c r="C58" t="n">
-        <v>1.146103686695887</v>
+        <v>0.1492323676628343</v>
       </c>
       <c r="D58" t="n">
-        <v>1.081436508035828</v>
+        <v>0.01338583730422605</v>
       </c>
       <c r="E58" t="n">
         <v>39</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3542339988044081</v>
+        <v>0.7239775152527446</v>
       </c>
       <c r="C59" t="n">
-        <v>1.429207566274278</v>
+        <v>0.270225297646596</v>
       </c>
       <c r="D59" t="n">
-        <v>1.663215788633401</v>
+        <v>0.005797187100659382</v>
       </c>
       <c r="E59" t="n">
         <v>39</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09497051073700408</v>
+        <v>0.5634787334360924</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9002040021639236</v>
+        <v>0.4116909768395529</v>
       </c>
       <c r="D60" t="n">
-        <v>1.219202068208026</v>
+        <v>0.02483028972435466</v>
       </c>
       <c r="E60" t="n">
         <v>39</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.103506424091113</v>
+        <v>0.5548059942406131</v>
       </c>
       <c r="C61" t="n">
-        <v>0.69376390111936</v>
+        <v>0.3887221285824664</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7580427448927117</v>
+        <v>0.05647187717692041</v>
       </c>
       <c r="E61" t="n">
         <v>39</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.01925047041634781</v>
+        <v>0.4916443508461793</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8625587767104353</v>
+        <v>0.4845889318848555</v>
       </c>
       <c r="D62" t="n">
-        <v>1.333769178549267</v>
+        <v>0.02376671726896527</v>
       </c>
       <c r="E62" t="n">
         <v>39</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03858225601368775</v>
+        <v>0.5269605305805869</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8948350139713089</v>
+        <v>0.4453438212045076</v>
       </c>
       <c r="D63" t="n">
-        <v>1.15831372729972</v>
+        <v>0.02769564821490561</v>
       </c>
       <c r="E63" t="n">
         <v>39</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2438465669397137</v>
+        <v>0.6591096902162997</v>
       </c>
       <c r="C64" t="n">
-        <v>1.091316733551728</v>
+        <v>0.3275376541464755</v>
       </c>
       <c r="D64" t="n">
-        <v>1.441258042143267</v>
+        <v>0.01335265563722508</v>
       </c>
       <c r="E64" t="n">
         <v>39</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1332674824843518</v>
+        <v>0.3951614619965595</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4129327650558626</v>
+        <v>0.5068349818142793</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6704954097371348</v>
+        <v>0.09800355618916123</v>
       </c>
       <c r="E65" t="n">
         <v>39</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.277120805246715</v>
+        <v>0.6685287654945365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9047386864796384</v>
+        <v>0.3035119650425661</v>
       </c>
       <c r="D66" t="n">
-        <v>1.025708176319035</v>
+        <v>0.02795926946289719</v>
       </c>
       <c r="E66" t="n">
         <v>39</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5460625161423376</v>
+        <v>0.19505050043598</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1811026649133173</v>
+        <v>0.663085327891779</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6014321941438175</v>
+        <v>0.141864171672241</v>
       </c>
       <c r="E67" t="n">
         <v>39</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2010405545104182</v>
+        <v>0.6337465074798286</v>
       </c>
       <c r="C68" t="n">
-        <v>1.251594756305116</v>
+        <v>0.3514852079729773</v>
       </c>
       <c r="D68" t="n">
-        <v>1.255708603225677</v>
+        <v>0.0147682845471942</v>
       </c>
       <c r="E68" t="n">
         <v>39</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1833911661118369</v>
+        <v>0.6078675106132563</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8098751544062343</v>
+        <v>0.3475543854705124</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7898950067284068</v>
+        <v>0.04457810391623124</v>
       </c>
       <c r="E69" t="n">
         <v>39</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1735926965639389</v>
+        <v>0.3768876697834045</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4313729191531682</v>
+        <v>0.4916383705765957</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3901773818062175</v>
+        <v>0.1314739596399998</v>
       </c>
       <c r="E70" t="n">
         <v>39</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2453017203454285</v>
+        <v>0.6547946787084236</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9852775370016279</v>
+        <v>0.3234487153991101</v>
       </c>
       <c r="D71" t="n">
-        <v>1.158139407362192</v>
+        <v>0.02175660589246648</v>
       </c>
       <c r="E71" t="n">
         <v>39</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.5015301909455114</v>
+        <v>0.2187252084048851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03463111427311716</v>
+        <v>0.4888493118796972</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0911603492906387</v>
+        <v>0.2924254797154179</v>
       </c>
       <c r="E72" t="n">
         <v>39</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5930485155856833</v>
+        <v>0.830366076562882</v>
       </c>
       <c r="C73" t="n">
-        <v>1.774616517695697</v>
+        <v>0.1669716468419362</v>
       </c>
       <c r="D73" t="n">
-        <v>1.741908357658367</v>
+        <v>0.002662276595181662</v>
       </c>
       <c r="E73" t="n">
         <v>39</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.433768397331112</v>
+        <v>0.7492172332628181</v>
       </c>
       <c r="C74" t="n">
-        <v>1.010111006745581</v>
+        <v>0.2257641519042841</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8800024647535657</v>
+        <v>0.0250186148328977</v>
       </c>
       <c r="E74" t="n">
         <v>39</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5257923262285875</v>
+        <v>0.7957731351996186</v>
       </c>
       <c r="C75" t="n">
-        <v>1.064161473553376</v>
+        <v>0.1905864818944503</v>
       </c>
       <c r="D75" t="n">
-        <v>1.311161355856235</v>
+        <v>0.01364038290593086</v>
       </c>
       <c r="E75" t="n">
         <v>39</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08167803325158235</v>
+        <v>0.556280658220233</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9012986744472106</v>
+        <v>0.4212243762526085</v>
       </c>
       <c r="D76" t="n">
-        <v>1.306801849162503</v>
+        <v>0.02249496552715866</v>
       </c>
       <c r="E76" t="n">
         <v>39</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.2765727237198614</v>
+        <v>0.3032845086741867</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2160828843283643</v>
+        <v>0.5912456607687495</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8463015268848358</v>
+        <v>0.1054698305570637</v>
       </c>
       <c r="E77" t="n">
         <v>39</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01672985922606546</v>
+        <v>0.5034134155557843</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6514689429106458</v>
+        <v>0.4477303120470997</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9709220766101146</v>
+        <v>0.04885627239711614</v>
       </c>
       <c r="E78" t="n">
         <v>39</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2134945402720708</v>
+        <v>0.4648504376941334</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08292888652171981</v>
+        <v>0.2182580345787018</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.273360441674236</v>
+        <v>0.3168915277271645</v>
       </c>
       <c r="E79" t="n">
         <v>39</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04684292249293281</v>
+        <v>0.1346747881716973</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.5338288924905409</v>
+        <v>0.1024403088905313</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.9753852493177754</v>
+        <v>0.7628849029377712</v>
       </c>
       <c r="E80" t="n">
         <v>39</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5498012441537743</v>
+        <v>0.808791204941696</v>
       </c>
       <c r="C81" t="n">
-        <v>1.248372775758773</v>
+        <v>0.181813421947686</v>
       </c>
       <c r="D81" t="n">
-        <v>1.326967461470594</v>
+        <v>0.009395373110618067</v>
       </c>
       <c r="E81" t="n">
         <v>39</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1094020118701214</v>
+        <v>0.563373587666866</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7571064938800224</v>
+        <v>0.3926079615404043</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8979466523361231</v>
+        <v>0.04401845079272951</v>
       </c>
       <c r="E82" t="n">
         <v>39</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534382216104395</v>
+        <v>0.8024468642910011</v>
       </c>
       <c r="C83" t="n">
-        <v>1.262732828612122</v>
+        <v>0.1876407402093767</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27474567113068</v>
+        <v>0.009912395499622188</v>
       </c>
       <c r="E83" t="n">
         <v>39</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3907181396023607</v>
+        <v>0.7246669142083798</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8811739586697972</v>
+        <v>0.2449138103822577</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9134640255882892</v>
+        <v>0.03041927540936257</v>
       </c>
       <c r="E84" t="n">
         <v>39</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6788547932121862</v>
+        <v>0.8565618610013422</v>
       </c>
       <c r="C85" t="n">
-        <v>1.357235741232208</v>
+        <v>0.1379795676189775</v>
       </c>
       <c r="D85" t="n">
-        <v>1.559343542183149</v>
+        <v>0.00545857137968034</v>
       </c>
       <c r="E85" t="n">
         <v>39</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1001991585020032</v>
+        <v>0.4478516056401841</v>
       </c>
       <c r="C86" t="n">
-        <v>1.193064939552136</v>
+        <v>0.5409642455031239</v>
       </c>
       <c r="D86" t="n">
-        <v>1.622343885211414</v>
+        <v>0.01118414885669177</v>
       </c>
       <c r="E86" t="n">
         <v>39</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.743611512247573</v>
+        <v>0.8755403365277421</v>
       </c>
       <c r="C87" t="n">
-        <v>1.377357850561459</v>
+        <v>0.1192783315771542</v>
       </c>
       <c r="D87" t="n">
-        <v>1.517283293321433</v>
+        <v>0.005181331895103829</v>
       </c>
       <c r="E87" t="n">
         <v>39</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9093516170746103</v>
+        <v>0.9184035682916812</v>
       </c>
       <c r="C88" t="n">
-        <v>2.748838603362265</v>
+        <v>0.08147286594598267</v>
       </c>
       <c r="D88" t="n">
-        <v>2.82361067601905</v>
+        <v>0.0001235657623360005</v>
       </c>
       <c r="E88" t="n">
         <v>39</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5810302034645549</v>
+        <v>0.8199631617407442</v>
       </c>
       <c r="C89" t="n">
-        <v>1.244456873217096</v>
+        <v>0.1699325034227208</v>
       </c>
       <c r="D89" t="n">
-        <v>1.241824492780786</v>
+        <v>0.01010433483653478</v>
       </c>
       <c r="E89" t="n">
         <v>39</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5641798824158049</v>
+        <v>0.8088983630756945</v>
       </c>
       <c r="C90" t="n">
-        <v>1.115812906491946</v>
+        <v>0.174683952929211</v>
       </c>
       <c r="D90" t="n">
-        <v>1.003556113004357</v>
+        <v>0.01641768399509443</v>
       </c>
       <c r="E90" t="n">
         <v>39</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2809421788438773</v>
+        <v>0.6824752409592725</v>
       </c>
       <c r="C91" t="n">
-        <v>1.245665168242872</v>
+        <v>0.3080263289792868</v>
       </c>
       <c r="D91" t="n">
-        <v>1.516430096622236</v>
+        <v>0.009498430061440778</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.9907722469873856</v>
+        <v>0.03362832827647064</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.9099859239553264</v>
+        <v>0.6119093670070358</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2483654132881192</v>
+        <v>0.3544623047164931</v>
       </c>
       <c r="E92" t="n">
         <v>40</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.211926573952293</v>
+        <v>0.04302298223569174</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2999007236689205</v>
+        <v>0.8344704547304487</v>
       </c>
       <c r="D93" t="n">
-        <v>0.885441357390966</v>
+        <v>0.1225065630338593</v>
       </c>
       <c r="E93" t="n">
         <v>40</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.344337271926799</v>
+        <v>0.01077562035275153</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.185424390554922</v>
+        <v>0.245800823346748</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5369659238427794</v>
+        <v>0.7434235563005005</v>
       </c>
       <c r="E94" t="n">
         <v>40</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.9081344277179209</v>
+        <v>0.02694325144688003</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.011796478668821</v>
+        <v>0.3238280082050796</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.3408706728295179</v>
+        <v>0.6492287403480406</v>
       </c>
       <c r="E95" t="n">
         <v>40</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3392881118397166</v>
+        <v>0.1806477936896704</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2827675818738636</v>
+        <v>0.4565929261478011</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1167465383606505</v>
+        <v>0.3627592801625283</v>
       </c>
       <c r="E96" t="n">
         <v>40</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.068205762283038</v>
+        <v>0.02668847796685022</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.9444320533328973</v>
+        <v>0.4970934878584654</v>
       </c>
       <c r="D97" t="n">
-        <v>0.007866123679526257</v>
+        <v>0.4762180341746844</v>
       </c>
       <c r="E97" t="n">
         <v>40</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.7942681611319908</v>
+        <v>0.09021600619127904</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3223582831204307</v>
+        <v>0.6944464129554065</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5461513388761211</v>
+        <v>0.2153375808533144</v>
       </c>
       <c r="E98" t="n">
         <v>40</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.254569071013629</v>
+        <v>0.009361648512490149</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.272684316985754</v>
+        <v>0.1976896126266098</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.6702120866029383</v>
+        <v>0.7929487388609</v>
       </c>
       <c r="E99" t="n">
         <v>40</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.9323785787343393</v>
+        <v>0.04940808305071267</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.6709469148424257</v>
+        <v>0.5195308267491249</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07509996012446789</v>
+        <v>0.4310610902001625</v>
       </c>
       <c r="E100" t="n">
         <v>40</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.844730468198615</v>
+        <v>0.06383173461117146</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.5559208383302884</v>
+        <v>0.6523064163439158</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3877286298992779</v>
+        <v>0.2838618490449127</v>
       </c>
       <c r="E101" t="n">
         <v>40</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.056749526879481</v>
+        <v>0.04415360254848396</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.6532376464281039</v>
+        <v>0.4888662629924613</v>
       </c>
       <c r="D102" t="n">
-        <v>0.004686364287017117</v>
+        <v>0.4669801344590548</v>
       </c>
       <c r="E102" t="n">
         <v>40</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.8870044418682947</v>
+        <v>0.06303249012242966</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4678207969547908</v>
+        <v>0.7622324844344861</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6995987617079386</v>
+        <v>0.1747350254430842</v>
       </c>
       <c r="E103" t="n">
         <v>40</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.9877964776720158</v>
+        <v>0.04302859246088977</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.6929388910354756</v>
+        <v>0.6646213785479773</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3789589885853594</v>
+        <v>0.2923500289911329</v>
       </c>
       <c r="E104" t="n">
         <v>40</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.6363237923206337</v>
+        <v>0.1168633231407262</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.3206638438102455</v>
+        <v>0.6369692057777471</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4540626835685863</v>
+        <v>0.2461674710815268</v>
       </c>
       <c r="E105" t="n">
         <v>40</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9605766766597366</v>
+        <v>0.04619701714174521</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.6677732892226597</v>
+        <v>0.6891891247707729</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4451923688209327</v>
+        <v>0.2646138580874819</v>
       </c>
       <c r="E106" t="n">
         <v>40</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.384354096847299</v>
+        <v>0.003458183388090993</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.569833874972979</v>
+        <v>0.09103947436333604</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.099275501153351</v>
+        <v>0.9055023422485728</v>
       </c>
       <c r="E107" t="n">
         <v>40</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9561036432799976</v>
+        <v>0.04599638852455094</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.6802029153833128</v>
+        <v>0.6597353334665383</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3731285520866187</v>
+        <v>0.294268278008911</v>
       </c>
       <c r="E108" t="n">
         <v>40</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.047767392702165</v>
+        <v>0.01153572039054648</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.413406803379552</v>
+        <v>0.2510542859078421</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5217123218990104</v>
+        <v>0.7374099937016114</v>
       </c>
       <c r="E109" t="n">
         <v>40</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.159435288718039</v>
+        <v>0.01471540071435724</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.129079644696326</v>
+        <v>0.2484983157705742</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5275091243454505</v>
+        <v>0.7367862835150685</v>
       </c>
       <c r="E110" t="n">
         <v>40</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.526482615778799</v>
+        <v>0.1324019087462228</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.3510836169807671</v>
+        <v>0.5865861147944611</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3639723169440351</v>
+        <v>0.2810119764593159</v>
       </c>
       <c r="E111" t="n">
         <v>40</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9662315019768168</v>
+        <v>0.02235004600191797</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.9753527096054962</v>
+        <v>0.1702105455528931</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7501348191342679</v>
+        <v>0.8074394084451889</v>
       </c>
       <c r="E112" t="n">
         <v>40</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.609007675624222</v>
+        <v>0.004882233363178947</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.389461514041053</v>
+        <v>0.1289907927997788</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.9137671942292734</v>
+        <v>0.8661269738370424</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8987901008060344</v>
+        <v>0.04967731102838933</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.6986549346695422</v>
+        <v>0.4720170504825168</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.01931979395903556</v>
+        <v>0.4783056384890941</v>
       </c>
       <c r="E114" t="n">
         <v>40</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.092428755783795</v>
+        <v>0.05970214023661948</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6344678322875755</v>
+        <v>0.9295852283216075</v>
       </c>
       <c r="D115" t="n">
-        <v>1.925476459461215</v>
+        <v>0.01071263144177299</v>
       </c>
       <c r="E115" t="n">
         <v>40</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8954684564832387</v>
+        <v>0.0581142293894833</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.5893876044351966</v>
+        <v>0.5234599924312937</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09068728257580642</v>
+        <v>0.4184257781792229</v>
       </c>
       <c r="E116" t="n">
         <v>40</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.485125072489917</v>
+        <v>0.00996760988672841</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.177971458936903</v>
+        <v>0.3470383157728898</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.3052494425274624</v>
+        <v>0.6429940743403819</v>
       </c>
       <c r="E117" t="n">
         <v>40</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.311342033653612</v>
+        <v>0.003832410695897507</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.583610326503156</v>
+        <v>0.06930824325727075</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.237498190264724</v>
+        <v>0.926859346046832</v>
       </c>
       <c r="E118" t="n">
         <v>40</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.394732896690892</v>
+        <v>0.007897816943576505</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.315386553675006</v>
+        <v>0.2552294206849446</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.5147178382197318</v>
+        <v>0.7368727623714788</v>
       </c>
       <c r="E119" t="n">
         <v>40</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.8312085237317557</v>
+        <v>0.05918367267952424</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.6231190026979841</v>
+        <v>0.5410655367285919</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1321387200354628</v>
+        <v>0.3997507905918835</v>
       </c>
       <c r="E120" t="n">
         <v>40</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.53834054820481</v>
+        <v>0.01519325982058401</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.9167398914564667</v>
+        <v>0.5753678164909195</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1466001351478134</v>
+        <v>0.4094389236884965</v>
       </c>
       <c r="E121" t="n">
         <v>40</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.338666803657129</v>
+        <v>0.03107002085891924</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1789471658609837</v>
+        <v>0.9180288023086611</v>
       </c>
       <c r="D122" t="n">
-        <v>1.35045443432849</v>
+        <v>0.05090117683241981</v>
       </c>
       <c r="E122" t="n">
         <v>40</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01969777680570434</v>
+        <v>0.5083766000177653</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6291316443668852</v>
+        <v>0.4535058634378835</v>
       </c>
       <c r="D123" t="n">
-        <v>1.267072661889436</v>
+        <v>0.03811753654435129</v>
       </c>
       <c r="E123" t="n">
         <v>40</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.257017509791491</v>
+        <v>0.004646599100663525</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.505946941470435</v>
+        <v>0.09870474797189989</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.056428806530584</v>
+        <v>0.8966486529274366</v>
       </c>
       <c r="E124" t="n">
         <v>41</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.4146159575882488</v>
+        <v>0.1774476215847074</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.2257792895891494</v>
+        <v>0.5493858219215395</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3472389304465857</v>
+        <v>0.2731665564937533</v>
       </c>
       <c r="E125" t="n">
         <v>41</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.152912724450256</v>
+        <v>0.02535575981949005</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.9014359250573217</v>
+        <v>0.5629136101395622</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1350417157812053</v>
+        <v>0.4117306300409476</v>
       </c>
       <c r="E126" t="n">
         <v>41</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.6248045267823084</v>
+        <v>0.05647672275974863</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.7245662102371649</v>
+        <v>0.1847261434122506</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.6920610720338168</v>
+        <v>0.758797133828001</v>
       </c>
       <c r="E127" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-2.244781551683227</v>
+        <v>0.0006787928270067053</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.344023306362907</v>
+        <v>0.03576886804958432</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.569198952677575</v>
+        <v>0.9635523391234088</v>
       </c>
       <c r="E128" t="n">
         <v>41</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.8161148813986283</v>
+        <v>0.04455543667679812</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.8129252554954515</v>
+        <v>0.3924534499467489</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.181606879167682</v>
+        <v>0.562991113376453</v>
       </c>
       <c r="E129" t="n">
         <v>41</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01730844014028793</v>
+        <v>0.4462342513142057</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2405340422712133</v>
+        <v>0.4112869786449749</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5486040869793306</v>
+        <v>0.1424787700408195</v>
       </c>
       <c r="E130" t="n">
         <v>41</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3430400930254838</v>
+        <v>0.6436963509060935</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4217801647808618</v>
+        <v>0.2559136453839527</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5750395067808604</v>
+        <v>0.1003900037099541</v>
       </c>
       <c r="E131" t="n">
         <v>41</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.9149754463052868</v>
+        <v>0.025651012869642</v>
       </c>
       <c r="C132" t="n">
-        <v>-1.007956338140894</v>
+        <v>0.2835195071252322</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.4338035765594064</v>
+        <v>0.6908294800051257</v>
       </c>
       <c r="E132" t="n">
         <v>41</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.796422271330935</v>
+        <v>0.08397427476334705</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.387752028669092</v>
+        <v>0.647398172299627</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4039092998931643</v>
+        <v>0.2686275529370257</v>
       </c>
       <c r="E133" t="n">
         <v>41</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.1945389263239529</v>
+        <v>0.3471955141471997</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2387278127689346</v>
+        <v>0.5570831404873333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9416287924577978</v>
+        <v>0.09572134536546699</v>
       </c>
       <c r="E134" t="n">
         <v>41</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.004733392074622</v>
+        <v>0.03210899844273173</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.8945197380974516</v>
+        <v>0.5440222729930638</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1067177576353579</v>
+        <v>0.4238687285642046</v>
       </c>
       <c r="E135" t="n">
         <v>41</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.028551644991789</v>
+        <v>0.01602146050643446</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.171711017045745</v>
+        <v>0.2467474920195591</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.5303806577098776</v>
+        <v>0.7372310474740064</v>
       </c>
       <c r="E136" t="n">
         <v>41</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-2.852866534441171</v>
+        <v>0.0001095373775212882</v>
       </c>
       <c r="C137" t="n">
-        <v>-2.531218937587831</v>
+        <v>0.0967900897142886</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.068938435430106</v>
+        <v>0.9031003729081899</v>
       </c>
       <c r="E137" t="n">
         <v>41</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.682345349001674</v>
+        <v>0.002350472417651155</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.684161214674213</v>
+        <v>0.1500250966674971</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.831920369940783</v>
+        <v>0.8476244309148515</v>
       </c>
       <c r="E138" t="n">
         <v>41</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-3.417900543735011</v>
+        <v>8.055595486853201e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.58136866957144</v>
+        <v>0.1194575507062546</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.9575200188284406</v>
+        <v>0.8804618933388768</v>
       </c>
       <c r="E139" t="n">
         <v>41</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.9834337330276337</v>
+        <v>0.03169156536638335</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.8670450722535402</v>
+        <v>0.3357392018559578</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.3139085318374349</v>
+        <v>0.6325692327776588</v>
       </c>
       <c r="E140" t="n">
         <v>41</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.756267719382161</v>
+        <v>0.1111542965056092</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.08363613716871854</v>
+        <v>0.7845847865111808</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9690974779532758</v>
+        <v>0.1042609169832099</v>
       </c>
       <c r="E141" t="n">
         <v>41</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.310906504063548</v>
+        <v>0.01253771631156262</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.179623418680074</v>
+        <v>0.3929282106645749</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.2092156768877168</v>
+        <v>0.5945340730238626</v>
       </c>
       <c r="E142" t="n">
         <v>41</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.058651731280103</v>
+        <v>0.009566632447921285</v>
       </c>
       <c r="C143" t="n">
-        <v>-1.282337324461715</v>
+        <v>0.1093446990792782</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.9978742917521907</v>
+        <v>0.8810886684728004</v>
       </c>
       <c r="E143" t="n">
         <v>41</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.6160225918485434</v>
+        <v>0.1052644292593848</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.4355338621472465</v>
+        <v>0.4716407649245725</v>
       </c>
       <c r="D144" t="n">
-        <v>0.03609675804246774</v>
+        <v>0.4230948058160428</v>
       </c>
       <c r="E144" t="n">
         <v>41</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.592065273506132</v>
+        <v>0.04731034361274122</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.8137960478304019</v>
+        <v>0.1752129128422476</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.7217743523630212</v>
+        <v>0.7774767435450112</v>
       </c>
       <c r="E145" t="n">
         <v>41</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.7893963422720656</v>
+        <v>0.05832971748252909</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.6717729466766907</v>
+        <v>0.4880815989850831</v>
       </c>
       <c r="D146" t="n">
-        <v>0.02430508961486237</v>
+        <v>0.4535886835323876</v>
       </c>
       <c r="E146" t="n">
         <v>41</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.667498305446325</v>
+        <v>0.07866338772529459</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.5741741243419024</v>
+        <v>0.3713860102826402</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.203125522568805</v>
+        <v>0.5499506019920648</v>
       </c>
       <c r="E147" t="n">
         <v>41</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.7838344979579641</v>
+        <v>0.07277452100161844</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.5459871787936744</v>
+        <v>0.445164886628903</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.05612971701631227</v>
+        <v>0.4820605923694785</v>
       </c>
       <c r="E148" t="n">
         <v>41</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.879531102860464</v>
+        <v>0.04889263772685802</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.7136948749236832</v>
+        <v>0.3952462999072834</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1759675089908164</v>
+        <v>0.5558610623658586</v>
       </c>
       <c r="E149" t="n">
         <v>41</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.243404832185557</v>
+        <v>0.02475335202636343</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.8678473277355546</v>
+        <v>0.3464636685247188</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.2971882238230357</v>
+        <v>0.6287829794489176</v>
       </c>
       <c r="E150" t="n">
         <v>41</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.030266927592815</v>
+        <v>0.01542824815551275</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.173921229631454</v>
+        <v>0.2271393311421037</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.5824611615517704</v>
+        <v>0.7574324207023833</v>
       </c>
       <c r="E151" t="n">
         <v>41</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.318084429114118</v>
+        <v>0.01639743059814528</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.03405219439322</v>
+        <v>0.5549755539088234</v>
       </c>
       <c r="D152" t="n">
-        <v>0.108760931762766</v>
+        <v>0.4286270154930315</v>
       </c>
       <c r="E152" t="n">
         <v>41</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.508800770137138</v>
+        <v>0.003516810543368195</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.673217854853214</v>
+        <v>0.2093048967238841</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.6395381913909909</v>
+        <v>0.7871782927327476</v>
       </c>
       <c r="E153" t="n">
         <v>41</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.691432708674152</v>
+        <v>0.003147827291072405</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.600759913200215</v>
+        <v>0.2260188640489862</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.5933945318745736</v>
+        <v>0.7708333086599414</v>
       </c>
       <c r="E154" t="n">
         <v>41</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4566120133339145</v>
+        <v>0.775272045828416</v>
       </c>
       <c r="C155" t="n">
-        <v>1.487488884972684</v>
+        <v>0.2219833781062239</v>
       </c>
       <c r="D155" t="n">
-        <v>2.192179860682308</v>
+        <v>0.00274457606536</v>
       </c>
       <c r="E155" t="n">
         <v>42</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6830111065798927</v>
+        <v>0.136869081399989</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.009249750463802831</v>
+        <v>0.7344885789655995</v>
       </c>
       <c r="D156" t="n">
-        <v>0.7959825503856514</v>
+        <v>0.1286423396344117</v>
       </c>
       <c r="E156" t="n">
         <v>42</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.0492210430658086</v>
+        <v>0.4535130120780541</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4995524147793508</v>
+        <v>0.4749310910362284</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8410693666994781</v>
+        <v>0.0715558968857172</v>
       </c>
       <c r="E157" t="n">
         <v>42</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.215224105083787</v>
+        <v>0.04326841057772505</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.5620967923773402</v>
+        <v>0.565075360097526</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1530097221157753</v>
+        <v>0.3916562293247486</v>
       </c>
       <c r="E158" t="n">
         <v>42</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1275648769588808</v>
+        <v>0.410465043805496</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5254597517525273</v>
+        <v>0.5289744606899466</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9628803314164919</v>
+        <v>0.06056049550455728</v>
       </c>
       <c r="E159" t="n">
         <v>42</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.05364210122136609</v>
+        <v>0.4723902660557875</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9594768383768358</v>
+        <v>0.5103402711984725</v>
       </c>
       <c r="D160" t="n">
-        <v>1.490994197903667</v>
+        <v>0.01726946274573994</v>
       </c>
       <c r="E160" t="n">
         <v>42</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.1035642205782873</v>
+        <v>0.4231641881918271</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5307803711123346</v>
+        <v>0.5015885144159088</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7615261915789865</v>
+        <v>0.07524729739226417</v>
       </c>
       <c r="E161" t="n">
         <v>42</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.6220638470250275</v>
+        <v>0.1650761455130488</v>
       </c>
       <c r="C162" t="n">
-        <v>0.172975668693076</v>
+        <v>0.7363932053611624</v>
       </c>
       <c r="D162" t="n">
-        <v>0.8744541458449141</v>
+        <v>0.09853064912578871</v>
       </c>
       <c r="E162" t="n">
         <v>42</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.2581197058953061</v>
+        <v>0.3442882565158591</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8503072665067525</v>
+        <v>0.6178396289968165</v>
       </c>
       <c r="D163" t="n">
-        <v>1.065556138913187</v>
+        <v>0.03787211448732423</v>
       </c>
       <c r="E163" t="n">
         <v>42</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.3922011032244607</v>
+        <v>0.2664753156122227</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4366322987098162</v>
+        <v>0.6318550127385458</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6499732041891583</v>
+        <v>0.1016696716492315</v>
       </c>
       <c r="E164" t="n">
         <v>42</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.04421287970255133</v>
+        <v>0.4704294787350609</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7387389198917366</v>
+        <v>0.4922347871958538</v>
       </c>
       <c r="D165" t="n">
-        <v>1.106947031704926</v>
+        <v>0.037335734069085</v>
       </c>
       <c r="E165" t="n">
         <v>42</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.5035719351626351</v>
+        <v>0.2181574930357223</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3837859757214436</v>
+        <v>0.6759495412558022</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6686678049931124</v>
+        <v>0.1058929657084758</v>
       </c>
       <c r="E166" t="n">
         <v>42</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.09923842901151642</v>
+        <v>0.4388453136217235</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7858354575932144</v>
+        <v>0.5325241874733446</v>
       </c>
       <c r="D167" t="n">
-        <v>1.281715069845141</v>
+        <v>0.02863049890493171</v>
       </c>
       <c r="E167" t="n">
         <v>42</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.03221549321193135</v>
+        <v>0.4796696455277167</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7760438666357946</v>
+        <v>0.4874509763964976</v>
       </c>
       <c r="D168" t="n">
-        <v>1.167382759868679</v>
+        <v>0.03287937807578584</v>
       </c>
       <c r="E168" t="n">
         <v>42</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1044065522449624</v>
+        <v>0.4408677249874252</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9786152512774099</v>
+        <v>0.5445209673667007</v>
       </c>
       <c r="D169" t="n">
-        <v>1.612525998160428</v>
+        <v>0.01461130764587421</v>
       </c>
       <c r="E169" t="n">
         <v>42</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.7855971647590774</v>
+        <v>0.1273529118045781</v>
       </c>
       <c r="C170" t="n">
-        <v>0.07050393935724386</v>
+        <v>0.7152643473598942</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5994566112682157</v>
+        <v>0.1573827408355276</v>
       </c>
       <c r="E170" t="n">
         <v>42</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.4241363101281005</v>
+        <v>0.2418155691038048</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2207718819190408</v>
+        <v>0.6159919318815067</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5656373967617788</v>
+        <v>0.1421924990146882</v>
       </c>
       <c r="E171" t="n">
         <v>42</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1339479454117433</v>
+        <v>0.4235075432764373</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9211448648980597</v>
+        <v>0.5580042910838</v>
       </c>
       <c r="D172" t="n">
-        <v>1.487386076289219</v>
+        <v>0.01848816563976244</v>
       </c>
       <c r="E172" t="n">
         <v>42</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1152761854474089</v>
+        <v>0.4263384189238146</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7210397392465983</v>
+        <v>0.5375849894244809</v>
       </c>
       <c r="D173" t="n">
-        <v>1.16674110636314</v>
+        <v>0.03607659165170458</v>
       </c>
       <c r="E173" t="n">
         <v>42</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.245114308166445</v>
+        <v>0.05016300097995971</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.2594201945608684</v>
+        <v>0.7714532428076522</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6517552549125504</v>
+        <v>0.178383756212388</v>
       </c>
       <c r="E174" t="n">
         <v>42</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.7962221328174575</v>
+        <v>0.1596771127797015</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01837026943393638</v>
+        <v>0.5258877597517945</v>
       </c>
       <c r="D175" t="n">
-        <v>0.07106261405127794</v>
+        <v>0.314435127468504</v>
       </c>
       <c r="E175" t="n">
         <v>42</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5041437023564821</v>
+        <v>0.2167598972514004</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3416545578022355</v>
+        <v>0.6710503269359106</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6557965823081054</v>
+        <v>0.1121897758126891</v>
       </c>
       <c r="E176" t="n">
         <v>42</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.05036878371238157</v>
+        <v>0.4720160507505057</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8548900336433921</v>
+        <v>0.5049029688284287</v>
       </c>
       <c r="D177" t="n">
-        <v>1.373239255991869</v>
+        <v>0.02308098042106553</v>
       </c>
       <c r="E177" t="n">
         <v>42</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.2028830122423623</v>
+        <v>0.381599728934696</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9010009405610536</v>
+        <v>0.6011121501578609</v>
       </c>
       <c r="D178" t="n">
-        <v>1.565482182858921</v>
+        <v>0.01728812090744304</v>
       </c>
       <c r="E178" t="n">
         <v>42</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.03980402520997</v>
+        <v>0.02757238684070587</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.8902868701335162</v>
+        <v>0.2119044556749738</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.6187960633870312</v>
+        <v>0.7605231574843202</v>
       </c>
       <c r="E179" t="n">
         <v>42</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.5729936459839802</v>
+        <v>0.1705863058879886</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.09223416627492853</v>
+        <v>0.5420455222792872</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2246098344012701</v>
+        <v>0.2873681718327243</v>
       </c>
       <c r="E180" t="n">
         <v>42</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.510732607326569</v>
+        <v>0.02688654038971296</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.6166662364487162</v>
+        <v>0.6732575726284955</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3648526041352575</v>
+        <v>0.2998558869817917</v>
       </c>
       <c r="E181" t="n">
         <v>42</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.4740152367933727</v>
+        <v>0.2238749581492231</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3063954689096907</v>
+        <v>0.6949917066114408</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9305396141368255</v>
+        <v>0.08113333523933636</v>
       </c>
       <c r="E182" t="n">
         <v>42</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9562239590676522</v>
+        <v>0.05719492942192974</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.5703144052382579</v>
+        <v>0.5028534972957983</v>
       </c>
       <c r="D183" t="n">
-        <v>0.04486112774423316</v>
+        <v>0.439951573282272</v>
       </c>
       <c r="E183" t="n">
         <v>42</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.7981763645556963</v>
+        <v>0.1167270102911691</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.07796207182092829</v>
+        <v>0.6870493487657027</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5259283987833704</v>
+        <v>0.1962236409431282</v>
       </c>
       <c r="E184" t="n">
         <v>42</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.9089910368520389</v>
+        <v>0.07807359925769106</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.4347112413380724</v>
+        <v>0.4631105021172344</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.02799625859015793</v>
+        <v>0.4588158986250744</v>
       </c>
       <c r="E185" t="n">
         <v>42</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.143483113022294</v>
+        <v>0.01259208971103962</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.163936475468241</v>
+        <v>0.1228397465899043</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.9341673434918442</v>
+        <v>0.8645681636990559</v>
       </c>
       <c r="E186" t="n">
         <v>42</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3325415340599183</v>
+        <v>0.6923132821361089</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7404794722802767</v>
+        <v>0.2745511404185371</v>
       </c>
       <c r="D187" t="n">
-        <v>1.155655241805014</v>
+        <v>0.03313557744535397</v>
       </c>
       <c r="E187" t="n">
         <v>43</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.05900543160141086</v>
+        <v>0.5294921228652402</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5948753270669077</v>
+        <v>0.4269138618979239</v>
       </c>
       <c r="D188" t="n">
-        <v>1.196036641332206</v>
+        <v>0.04359401523683587</v>
       </c>
       <c r="E188" t="n">
         <v>43</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.04962433997262866</v>
+        <v>0.5109526255712564</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5196588316113439</v>
+        <v>0.4123968661782992</v>
       </c>
       <c r="D189" t="n">
-        <v>0.729524987739942</v>
+        <v>0.07665050825044419</v>
       </c>
       <c r="E189" t="n">
         <v>43</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.444289140237738</v>
+        <v>0.2335872091888208</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1796572290703925</v>
+        <v>0.5973280372495405</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4588184883259238</v>
+        <v>0.1690847535616386</v>
       </c>
       <c r="E190" t="n">
         <v>43</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.3888313118853925</v>
+        <v>0.2669309183409785</v>
       </c>
       <c r="C191" t="n">
-        <v>0.39091868054816</v>
+        <v>0.6617355109935917</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9637483692436951</v>
+        <v>0.07133357066542957</v>
       </c>
       <c r="E191" t="n">
         <v>43</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.5583651651591406</v>
+        <v>0.1572163312326894</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1824262832362048</v>
+        <v>0.5469593668731891</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2545026371509557</v>
+        <v>0.2958243018941213</v>
       </c>
       <c r="E192" t="n">
         <v>43</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.1988980787469312</v>
+        <v>0.3665521556518722</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4496208495717501</v>
+        <v>0.5718160139092174</v>
       </c>
       <c r="D193" t="n">
-        <v>1.049173757554591</v>
+        <v>0.06163183043891008</v>
       </c>
       <c r="E193" t="n">
         <v>43</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.8988862116535994</v>
+        <v>0.07910818016707062</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.3394908775186788</v>
+        <v>0.6579732785764241</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4103550970327269</v>
+        <v>0.2629185412565054</v>
       </c>
       <c r="E194" t="n">
         <v>43</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1105501184458764</v>
+        <v>0.5525775996795371</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5635112599817721</v>
+        <v>0.3867740565773177</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8864933344481961</v>
+        <v>0.06064834374314537</v>
       </c>
       <c r="E195" t="n">
         <v>43</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.09705798837554863</v>
+        <v>0.4307473555671394</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5097365669218651</v>
+        <v>0.5217469226026781</v>
       </c>
       <c r="D196" t="n">
-        <v>1.245438048749981</v>
+        <v>0.04750572183018253</v>
       </c>
       <c r="E196" t="n">
         <v>43</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.3746132347378316</v>
+        <v>0.265657996636172</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2947495044021825</v>
+        <v>0.638340372830014</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8194077151319653</v>
+        <v>0.0960016305338139</v>
       </c>
       <c r="E197" t="n">
         <v>43</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.482745568198079</v>
+        <v>0.201000884808454</v>
       </c>
       <c r="C198" t="n">
-        <v>0.03003650550866765</v>
+        <v>0.6210900314298274</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5423499108320221</v>
+        <v>0.1779090837617185</v>
       </c>
       <c r="E198" t="n">
         <v>43</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2994963467569154</v>
+        <v>0.678309490816154</v>
       </c>
       <c r="C199" t="n">
-        <v>0.796703756405626</v>
+        <v>0.2921743678624364</v>
       </c>
       <c r="D199" t="n">
-        <v>1.15731579593703</v>
+        <v>0.02951614132140972</v>
       </c>
       <c r="E199" t="n">
         <v>43</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.2249518537476358</v>
+        <v>0.3335011298644729</v>
       </c>
       <c r="C200" t="n">
-        <v>0.249855063808602</v>
+        <v>0.5746498771049908</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9545939009142962</v>
+        <v>0.09184899303053648</v>
       </c>
       <c r="E200" t="n">
         <v>43</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4502719137021434</v>
+        <v>0.7729083029715142</v>
       </c>
       <c r="C201" t="n">
-        <v>1.551956733415458</v>
+        <v>0.2249630966846893</v>
       </c>
       <c r="D201" t="n">
-        <v>2.337071420604935</v>
+        <v>0.002128600343796437</v>
       </c>
       <c r="E201" t="n">
         <v>43</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.3809746927881245</v>
+        <v>0.2782387014643736</v>
       </c>
       <c r="C202" t="n">
-        <v>0.5619018678210698</v>
+        <v>0.6993160697899879</v>
       </c>
       <c r="D202" t="n">
-        <v>1.828190583669645</v>
+        <v>0.02244522874563813</v>
       </c>
       <c r="E202" t="n">
         <v>43</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2736855645028082</v>
+        <v>0.3214937486833606</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3586017927316679</v>
+        <v>0.6132613687618016</v>
       </c>
       <c r="D203" t="n">
-        <v>1.114571173782529</v>
+        <v>0.0652448825548375</v>
       </c>
       <c r="E203" t="n">
         <v>43</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.163702348042141</v>
+        <v>0.5751942959478057</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4867269318620718</v>
+        <v>0.3558986369334199</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9078268765966931</v>
+        <v>0.06890706711877426</v>
       </c>
       <c r="E204" t="n">
         <v>43</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01337516504246611</v>
+        <v>0.4979086194865229</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6181945229252283</v>
+        <v>0.4429125922989007</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8421861387062314</v>
+        <v>0.05917878821457648</v>
       </c>
       <c r="E205" t="n">
         <v>43</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1324764388029299</v>
+        <v>0.5862282675399351</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9637570924936573</v>
+        <v>0.3874665610662293</v>
       </c>
       <c r="D206" t="n">
-        <v>1.091287998731253</v>
+        <v>0.0263051713938357</v>
       </c>
       <c r="E206" t="n">
         <v>43</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1327696247207844</v>
+        <v>0.5751869213496402</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6334877826964548</v>
+        <v>0.3826159153847726</v>
       </c>
       <c r="D207" t="n">
-        <v>1.148884837332694</v>
+        <v>0.042197163265587</v>
       </c>
       <c r="E207" t="n">
         <v>43</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.1541965897925858</v>
+        <v>0.3959978516871432</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5145547532501159</v>
+        <v>0.5527484763031346</v>
       </c>
       <c r="D208" t="n">
-        <v>1.135143608295002</v>
+        <v>0.05125367200972226</v>
       </c>
       <c r="E208" t="n">
         <v>43</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.2040919341542396</v>
+        <v>0.604610475448218</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5573729873035295</v>
+        <v>0.3345485158149328</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8862204926022265</v>
+        <v>0.06084100873684897</v>
       </c>
       <c r="E209" t="n">
         <v>43</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.622221001372613</v>
+        <v>0.796025954490819</v>
       </c>
       <c r="C210" t="n">
-        <v>0.7203705660545613</v>
+        <v>0.1428127045527185</v>
       </c>
       <c r="D210" t="n">
-        <v>0.2661978001016145</v>
+        <v>0.06116134095646242</v>
       </c>
       <c r="E210" t="n">
         <v>44</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.021959147982822</v>
+        <v>0.3846228141796216</v>
       </c>
       <c r="C211" t="n">
-        <v>0.08229778851258274</v>
+        <v>0.3357622705700827</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.003120469932917327</v>
+        <v>0.2796149152502956</v>
       </c>
       <c r="E211" t="n">
         <v>44</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4587135000322793</v>
+        <v>0.7732192280934651</v>
       </c>
       <c r="C212" t="n">
-        <v>1.325974547525894</v>
+        <v>0.2201667434904256</v>
       </c>
       <c r="D212" t="n">
-        <v>1.598263581502386</v>
+        <v>0.006614028416109068</v>
       </c>
       <c r="E212" t="n">
         <v>44</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.07113890547507157</v>
+        <v>0.5470756567737</v>
       </c>
       <c r="C213" t="n">
-        <v>0.8246977595388988</v>
+        <v>0.4255147087407077</v>
       </c>
       <c r="D213" t="n">
-        <v>1.240106407223613</v>
+        <v>0.02740963448559248</v>
       </c>
       <c r="E213" t="n">
         <v>44</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3551925211009224</v>
+        <v>0.7248869151873063</v>
       </c>
       <c r="C214" t="n">
-        <v>1.397718172197165</v>
+        <v>0.2699230249493323</v>
       </c>
       <c r="D214" t="n">
-        <v>1.782035723181387</v>
+        <v>0.005190059863361408</v>
       </c>
       <c r="E214" t="n">
         <v>44</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5018876084903117</v>
+        <v>0.7674236679232709</v>
       </c>
       <c r="C215" t="n">
-        <v>0.8608721357417924</v>
+        <v>0.1898933129900718</v>
       </c>
       <c r="D215" t="n">
-        <v>0.520818459108802</v>
+        <v>0.04268301908665724</v>
       </c>
       <c r="E215" t="n">
         <v>44</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.1439296298258578</v>
+        <v>0.3955492048932913</v>
       </c>
       <c r="C216" t="n">
-        <v>0.4424494126626887</v>
+        <v>0.5271460695441249</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8520140331896392</v>
+        <v>0.07730472556258386</v>
       </c>
       <c r="E216" t="n">
         <v>44</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.07237017839767174</v>
+        <v>0.4618283958676732</v>
       </c>
       <c r="C217" t="n">
-        <v>1.177351901103953</v>
+        <v>0.5247069231493728</v>
       </c>
       <c r="D217" t="n">
-        <v>1.507328525027808</v>
+        <v>0.01346468098295414</v>
       </c>
       <c r="E217" t="n">
         <v>44</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.001678854394062512</v>
+        <v>0.4893950002548589</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5507445742768401</v>
+        <v>0.4550214570995748</v>
       </c>
       <c r="D218" t="n">
-        <v>1.00843196101298</v>
+        <v>0.05558354264556641</v>
       </c>
       <c r="E218" t="n">
         <v>44</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.5854626598552624</v>
+        <v>0.1611752144876638</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.079217400634641</v>
+        <v>0.620014679805437</v>
       </c>
       <c r="D219" t="n">
-        <v>0.446222942257527</v>
+        <v>0.2188101057068993</v>
       </c>
       <c r="E219" t="n">
         <v>44</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.07164492248800042</v>
+        <v>0.3709559384625761</v>
       </c>
       <c r="C220" t="n">
-        <v>0.08774260209522466</v>
+        <v>0.337621944159108</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.06702674718911157</v>
+        <v>0.2914221173783159</v>
       </c>
       <c r="E220" t="n">
         <v>44</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.02869107359280082</v>
+        <v>0.5099109697939199</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6170646028670522</v>
+        <v>0.4415677572603534</v>
       </c>
       <c r="D221" t="n">
-        <v>1.02947701245953</v>
+        <v>0.04852127294572662</v>
       </c>
       <c r="E221" t="n">
         <v>44</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.1799761068210396</v>
+        <v>0.377970680908799</v>
       </c>
       <c r="C222" t="n">
-        <v>0.4863507397905441</v>
+        <v>0.5510677834853135</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8728084611427313</v>
+        <v>0.07096153560588736</v>
       </c>
       <c r="E222" t="n">
         <v>44</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.1216509791667827</v>
+        <v>0.4164930406704407</v>
       </c>
       <c r="C223" t="n">
-        <v>0.5320533815807441</v>
+        <v>0.535528957996288</v>
       </c>
       <c r="D223" t="n">
-        <v>1.179584327254467</v>
+        <v>0.0479780013332713</v>
       </c>
       <c r="E223" t="n">
         <v>44</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4371400565073789</v>
+        <v>0.7558678077784866</v>
       </c>
       <c r="C224" t="n">
-        <v>1.138188283419331</v>
+        <v>0.226576772186627</v>
       </c>
       <c r="D224" t="n">
-        <v>1.030972240871513</v>
+        <v>0.01755542003488625</v>
       </c>
       <c r="E224" t="n">
         <v>44</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.4541204155495488</v>
+        <v>0.2380130879050528</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4653421740560536</v>
+        <v>0.7176994090679681</v>
       </c>
       <c r="D225" t="n">
-        <v>1.255505406147442</v>
+        <v>0.04428750302697945</v>
       </c>
       <c r="E225" t="n">
         <v>44</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.2224120990631159</v>
+        <v>0.2931638391092204</v>
       </c>
       <c r="C226" t="n">
-        <v>0.02528676719331358</v>
+        <v>0.441712241233825</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1738883621137212</v>
+        <v>0.2651239196569543</v>
       </c>
       <c r="E226" t="n">
         <v>44</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.1110097433979528</v>
+        <v>0.4228856434967889</v>
       </c>
       <c r="C227" t="n">
-        <v>0.624958128735904</v>
+        <v>0.5109527102699326</v>
       </c>
       <c r="D227" t="n">
-        <v>0.7746977479171654</v>
+        <v>0.06616164623327866</v>
       </c>
       <c r="E227" t="n">
         <v>44</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5474255266567714</v>
+        <v>0.7839544229523447</v>
       </c>
       <c r="C228" t="n">
-        <v>0.7910547655215713</v>
+        <v>0.1773306232296891</v>
       </c>
       <c r="D228" t="n">
-        <v>0.7315539786569679</v>
+        <v>0.03871495381796596</v>
       </c>
       <c r="E228" t="n">
         <v>44</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.001114781172868617</v>
+        <v>0.4432334685421283</v>
       </c>
       <c r="C229" t="n">
-        <v>0.277283761688074</v>
+        <v>0.4116162024275805</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4615814060235188</v>
+        <v>0.1451503290302912</v>
       </c>
       <c r="E229" t="n">
         <v>44</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.1470712039049668</v>
+        <v>0.3967685888984898</v>
       </c>
       <c r="C230" t="n">
-        <v>0.4916180161868969</v>
+        <v>0.5324084428104424</v>
       </c>
       <c r="D230" t="n">
-        <v>0.8668147978452999</v>
+        <v>0.0708229682910677</v>
       </c>
       <c r="E230" t="n">
         <v>44</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4183298935240221</v>
+        <v>0.7511225091321869</v>
       </c>
       <c r="C231" t="n">
-        <v>1.208120840384274</v>
+        <v>0.2372174420751029</v>
       </c>
       <c r="D231" t="n">
-        <v>1.298565332464313</v>
+        <v>0.01166004879271015</v>
       </c>
       <c r="E231" t="n">
         <v>44</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1999625976682798</v>
+        <v>0.6052082575717754</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6531383565868002</v>
+        <v>0.326055544376051</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5790144341299232</v>
+        <v>0.06873619805217349</v>
       </c>
       <c r="E232" t="n">
         <v>44</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.4207662645383484</v>
+        <v>0.7504276544088464</v>
       </c>
       <c r="C233" t="n">
-        <v>1.07132180857625</v>
+        <v>0.2357551693396774</v>
       </c>
       <c r="D233" t="n">
-        <v>1.345392230227069</v>
+        <v>0.01381717625147615</v>
       </c>
       <c r="E233" t="n">
         <v>44</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.307689522265387</v>
+        <v>0.3117413216289046</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5975796583291161</v>
+        <v>0.6426826461646383</v>
       </c>
       <c r="D234" t="n">
-        <v>1.116545195598128</v>
+        <v>0.04557603220645717</v>
       </c>
       <c r="E234" t="n">
         <v>44</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.41307758852786</v>
+        <v>0.7408442144301115</v>
       </c>
       <c r="C235" t="n">
-        <v>0.9015843820094095</v>
+        <v>0.2377974813965242</v>
       </c>
       <c r="D235" t="n">
-        <v>1.243768217639065</v>
+        <v>0.0213583041733643</v>
       </c>
       <c r="E235" t="n">
         <v>44</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1615807679761379</v>
+        <v>0.5714753625897723</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5145836603720174</v>
+        <v>0.3458337265681006</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6321710371110988</v>
+        <v>0.08269091084212686</v>
       </c>
       <c r="E236" t="n">
         <v>44</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3822863472765524</v>
+        <v>0.7131973528841584</v>
       </c>
       <c r="C237" t="n">
-        <v>0.8024271637460377</v>
+        <v>0.2444469580237193</v>
       </c>
       <c r="D237" t="n">
-        <v>0.7203003796406683</v>
+        <v>0.04235568909212237</v>
       </c>
       <c r="E237" t="n">
         <v>44</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.6636775993344297</v>
+        <v>0.1574533497738083</v>
       </c>
       <c r="C238" t="n">
-        <v>0.417649281489722</v>
+        <v>0.7858730347337038</v>
       </c>
       <c r="D238" t="n">
-        <v>1.077755566718259</v>
+        <v>0.05667361549248795</v>
       </c>
       <c r="E238" t="n">
         <v>44</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3345759805115923</v>
+        <v>0.7141982269547857</v>
       </c>
       <c r="C239" t="n">
-        <v>1.384890244261604</v>
+        <v>0.2805490898519311</v>
       </c>
       <c r="D239" t="n">
-        <v>1.801586438599293</v>
+        <v>0.00525268319328317</v>
       </c>
       <c r="E239" t="n">
         <v>44</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.06687917101340685</v>
+        <v>0.4568029414801644</v>
       </c>
       <c r="C240" t="n">
-        <v>0.7086652153066159</v>
+        <v>0.5087341451689119</v>
       </c>
       <c r="D240" t="n">
-        <v>1.218127936096884</v>
+        <v>0.03446291335092363</v>
       </c>
       <c r="E240" t="n">
         <v>44</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1773365967422554</v>
+        <v>0.6106145847173311</v>
       </c>
       <c r="C241" t="n">
-        <v>0.8075083343973323</v>
+        <v>0.360451657460731</v>
       </c>
       <c r="D241" t="n">
-        <v>1.189845236960031</v>
+        <v>0.02893375782193788</v>
       </c>
       <c r="E241" t="n">
         <v>44</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.3423981303211387</v>
+        <v>0.2898685117539245</v>
       </c>
       <c r="C242" t="n">
-        <v>0.4289047809569188</v>
+        <v>0.6530743371540634</v>
       </c>
       <c r="D242" t="n">
-        <v>1.115482180473598</v>
+        <v>0.05705715109201204</v>
       </c>
       <c r="E242" t="n">
         <v>44</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8975095133733977</v>
+        <v>0.9148666784240832</v>
       </c>
       <c r="C243" t="n">
-        <v>1.915032943181564</v>
+        <v>0.08366828836513296</v>
       </c>
       <c r="D243" t="n">
-        <v>1.733380614571636</v>
+        <v>0.001465033210783841</v>
       </c>
       <c r="E243" t="n">
         <v>44</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.4618870836864962</v>
+        <v>0.7686807511915166</v>
       </c>
       <c r="C244" t="n">
-        <v>1.185313288265639</v>
+        <v>0.216355984255538</v>
       </c>
       <c r="D244" t="n">
-        <v>1.089414983858226</v>
+        <v>0.01496326455294529</v>
       </c>
       <c r="E244" t="n">
         <v>44</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1999988670025251</v>
+        <v>0.6356382632418186</v>
       </c>
       <c r="C245" t="n">
-        <v>1.137219471195528</v>
+        <v>0.354132983407202</v>
       </c>
       <c r="D245" t="n">
-        <v>1.633681982354168</v>
+        <v>0.01022875335097927</v>
       </c>
       <c r="E245" t="n">
         <v>44</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.07704449426854393</v>
+        <v>0.4520321692835895</v>
       </c>
       <c r="C246" t="n">
-        <v>0.7232709462934314</v>
+        <v>0.5180530429496263</v>
       </c>
       <c r="D246" t="n">
-        <v>1.327804533124186</v>
+        <v>0.02991478776678414</v>
       </c>
       <c r="E246" t="n">
         <v>44</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.680172364929523</v>
+        <v>0.8540586679354706</v>
       </c>
       <c r="C247" t="n">
-        <v>1.273652598193329</v>
+        <v>0.1369628658510828</v>
       </c>
       <c r="D247" t="n">
-        <v>1.217198238120751</v>
+        <v>0.008978466213446267</v>
       </c>
       <c r="E247" t="n">
         <v>44</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.5298909454899909</v>
+        <v>0.209936583264811</v>
       </c>
       <c r="C248" t="n">
-        <v>0.7220274338879368</v>
+        <v>0.7315908596313254</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9017583325183757</v>
+        <v>0.05847255710386363</v>
       </c>
       <c r="E248" t="n">
         <v>44</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5232457860322246</v>
+        <v>0.7964990820109462</v>
       </c>
       <c r="C249" t="n">
-        <v>1.062749867008015</v>
+        <v>0.1921525181708483</v>
       </c>
       <c r="D249" t="n">
-        <v>1.561017122434357</v>
+        <v>0.0113483998182053</v>
       </c>
       <c r="E249" t="n">
         <v>45</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2180051773086736</v>
+        <v>0.6338457771740664</v>
       </c>
       <c r="C250" t="n">
-        <v>0.7303317934355452</v>
+        <v>0.3382923081592084</v>
       </c>
       <c r="D250" t="n">
-        <v>1.4442294623854</v>
+        <v>0.02786191466672511</v>
       </c>
       <c r="E250" t="n">
         <v>45</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5787456715115742</v>
+        <v>0.8250032456334078</v>
       </c>
       <c r="C251" t="n">
-        <v>1.505115623226849</v>
+        <v>0.172193891065802</v>
       </c>
       <c r="D251" t="n">
-        <v>2.046534697843334</v>
+        <v>0.002802863300790365</v>
       </c>
       <c r="E251" t="n">
         <v>45</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1436105530711037</v>
+        <v>0.6035799755671951</v>
       </c>
       <c r="C252" t="n">
-        <v>1.252798236557545</v>
+        <v>0.389487082042669</v>
       </c>
       <c r="D252" t="n">
-        <v>1.837512579569043</v>
+        <v>0.006932942390136005</v>
       </c>
       <c r="E252" t="n">
         <v>45</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4431482810102144</v>
+        <v>0.7609928441092614</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9925248504931606</v>
+        <v>0.2259703774680896</v>
       </c>
       <c r="D253" t="n">
-        <v>1.644571828063284</v>
+        <v>0.0130367784226491</v>
       </c>
       <c r="E253" t="n">
         <v>45</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1334112127934806</v>
+        <v>0.5926963548593052</v>
       </c>
       <c r="C254" t="n">
-        <v>1.016087543970449</v>
+        <v>0.3926447459586284</v>
       </c>
       <c r="D254" t="n">
-        <v>1.51147913502033</v>
+        <v>0.01465889918206627</v>
       </c>
       <c r="E254" t="n">
         <v>45</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.04345502342510105</v>
+        <v>0.5133134262183132</v>
       </c>
       <c r="C255" t="n">
-        <v>0.4795535497579014</v>
+        <v>0.4359364912262965</v>
       </c>
       <c r="D255" t="n">
-        <v>1.330991016075465</v>
+        <v>0.05075008255539037</v>
       </c>
       <c r="E255" t="n">
         <v>45</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.2271554567339014</v>
+        <v>0.6469968124525979</v>
       </c>
       <c r="C256" t="n">
-        <v>0.885029640746814</v>
+        <v>0.3363040752652043</v>
       </c>
       <c r="D256" t="n">
-        <v>1.66846169340723</v>
+        <v>0.01669911228219783</v>
       </c>
       <c r="E256" t="n">
         <v>45</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.05297813110472777</v>
+        <v>0.5074600790927944</v>
       </c>
       <c r="C257" t="n">
-        <v>0.4300944116819981</v>
+        <v>0.418269902872586</v>
       </c>
       <c r="D257" t="n">
-        <v>0.937505167430465</v>
+        <v>0.07427001803461941</v>
       </c>
       <c r="E257" t="n">
         <v>45</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2746123946267194</v>
+        <v>0.6761337939040011</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9696019439635027</v>
+        <v>0.3105591880547945</v>
       </c>
       <c r="D258" t="n">
-        <v>1.709863500826607</v>
+        <v>0.01330701804120454</v>
       </c>
       <c r="E258" t="n">
         <v>45</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.2688832155355717</v>
+        <v>0.6196469516818612</v>
       </c>
       <c r="C259" t="n">
-        <v>0.4843441983657532</v>
+        <v>0.2854479550792897</v>
       </c>
       <c r="D259" t="n">
-        <v>0.5023118112858703</v>
+        <v>0.09490509323884899</v>
       </c>
       <c r="E259" t="n">
         <v>45</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.2463082963047706</v>
+        <v>0.2519722405457497</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.1176676505474258</v>
+        <v>0.3346650320709237</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.1990503658002403</v>
+        <v>0.4133627273833266</v>
       </c>
       <c r="E260" t="n">
         <v>45</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1622889588921955</v>
+        <v>0.6070717947647387</v>
       </c>
       <c r="C261" t="n">
-        <v>1.023402289863589</v>
+        <v>0.37213877429573</v>
       </c>
       <c r="D261" t="n">
-        <v>1.200424343918392</v>
+        <v>0.02078943093953094</v>
       </c>
       <c r="E261" t="n">
         <v>45</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.5554747021302024</v>
+        <v>0.801526949509956</v>
       </c>
       <c r="C262" t="n">
-        <v>1.006770802220934</v>
+        <v>0.1770322289327466</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9271124710206414</v>
+        <v>0.02144082155729752</v>
       </c>
       <c r="E262" t="n">
         <v>45</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.03858038835336214</v>
+        <v>0.4728603242176173</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6039706234051242</v>
+        <v>0.491913707271618</v>
       </c>
       <c r="D263" t="n">
-        <v>1.409929744955299</v>
+        <v>0.0352259685107649</v>
       </c>
       <c r="E263" t="n">
         <v>45</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.01577544670250103</v>
+        <v>0.4896113057259283</v>
       </c>
       <c r="C264" t="n">
-        <v>0.7069751950614237</v>
+        <v>0.4781239346183904</v>
       </c>
       <c r="D264" t="n">
-        <v>1.284111774741894</v>
+        <v>0.03226475965568144</v>
       </c>
       <c r="E264" t="n">
         <v>45</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4336958411845349</v>
+        <v>0.7534797517323646</v>
       </c>
       <c r="C265" t="n">
-        <v>1.039699408461366</v>
+        <v>0.2285458086058798</v>
       </c>
       <c r="D265" t="n">
-        <v>1.134430183877291</v>
+        <v>0.01797443966175579</v>
       </c>
       <c r="E265" t="n">
         <v>45</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3105043836224771</v>
+        <v>0.69799961130947</v>
       </c>
       <c r="C266" t="n">
-        <v>1.186577571637776</v>
+        <v>0.2917905235968708</v>
       </c>
       <c r="D266" t="n">
-        <v>1.509193433537568</v>
+        <v>0.01020986509365928</v>
       </c>
       <c r="E266" t="n">
         <v>45</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.1064786261177157</v>
+        <v>0.4165963062629083</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3935388276046784</v>
+        <v>0.5222406636741584</v>
       </c>
       <c r="D267" t="n">
-        <v>1.208086191885037</v>
+        <v>0.06116303006293325</v>
       </c>
       <c r="E267" t="n">
         <v>45</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3801540676468609</v>
+        <v>0.7162802567793501</v>
       </c>
       <c r="C268" t="n">
-        <v>0.8657269145263972</v>
+        <v>0.2469008715753935</v>
       </c>
       <c r="D268" t="n">
-        <v>0.7614955502458179</v>
+        <v>0.03681887164525629</v>
       </c>
       <c r="E268" t="n">
         <v>45</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.364183616916326</v>
+        <v>0.6883296300551416</v>
       </c>
       <c r="C269" t="n">
-        <v>0.6511021116456622</v>
+        <v>0.2444719088339765</v>
       </c>
       <c r="D269" t="n">
-        <v>0.5104476786757096</v>
+        <v>0.06719846111088178</v>
       </c>
       <c r="E269" t="n">
         <v>45</v>
